--- a/qa/01.测试用例/Demo/Ver0.4副本设计/第三章/3-7副本测试用例.xlsx
+++ b/qa/01.测试用例/Demo/Ver0.4副本设计/第三章/3-7副本测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11745" yWindow="1755" windowWidth="3615" windowHeight="6000" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="11745" yWindow="1755" windowWidth="3615" windowHeight="6000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="759">
   <si>
     <t>caseID</t>
   </si>
@@ -2830,6 +2830,34 @@
   <si>
     <t>一定几率产生驱散增益buff</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-476</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-478</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-479</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG-480</t>
   </si>
 </sst>
 </file>
@@ -3501,7 +3529,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="143">
+  <cellStyleXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3739,8 +3767,9 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3958,8 +3987,11 @@
     <xf numFmtId="0" fontId="29" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="143" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="143">
+  <cellStyles count="144">
     <cellStyle name="20% - 着色 1" xfId="109" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="113" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="117" builtinId="38" customBuiltin="1"/>
@@ -4040,6 +4072,7 @@
     <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8"/>
     <cellStyle name="好" xfId="97" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="107" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="102" builtinId="22" customBuiltin="1"/>
@@ -4104,14 +4137,7 @@
     <cellStyle name="着色 6" xfId="128" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释 2" xfId="142"/>
   </cellStyles>
-  <dxfs count="239">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
+  <dxfs count="276">
     <dxf>
       <font>
         <b/>
@@ -4141,6 +4167,27 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -4159,6 +4206,20 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -4173,13 +4234,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -4187,7 +4241,21 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -4219,6 +4287,27 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -4251,188 +4340,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -4451,6 +4358,20 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="1"/>
       </font>
     </dxf>
@@ -4483,6 +4404,41 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -4501,6 +4457,20 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="1"/>
       </font>
     </dxf>
@@ -4533,6 +4503,27 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -4542,6 +4533,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="48"/>
@@ -4551,6 +4549,20 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="1"/>
       </font>
     </dxf>
@@ -4583,6 +4595,62 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -4601,7 +4669,14 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
       </font>
     </dxf>
     <dxf>
@@ -4633,14 +4708,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
+        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
@@ -4672,7 +4740,14 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
       </font>
     </dxf>
     <dxf>
@@ -4704,6 +4779,20 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -4712,6 +4801,13 @@
         <b/>
         <i val="0"/>
         <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -4743,7 +4839,14 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
       </font>
     </dxf>
     <dxf>
@@ -4775,6 +4878,27 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -4782,6 +4906,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF0000FF"/>
       </font>
     </dxf>
@@ -4789,7 +4920,168 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -4821,13 +5113,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -4846,20 +5131,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="1"/>
       </font>
     </dxf>
@@ -4892,167 +5163,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -5071,20 +5181,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="1"/>
       </font>
     </dxf>
@@ -5117,13 +5213,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -5142,20 +5231,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="1"/>
       </font>
     </dxf>
@@ -5188,34 +5263,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="1"/>
       </font>
     </dxf>
@@ -5294,55 +5341,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -5382,55 +5380,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -5456,63 +5405,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
@@ -5537,7 +5430,14 @@
       <font>
         <b/>
         <i val="0"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
       </font>
     </dxf>
     <dxf>
@@ -5569,14 +5469,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0000FF"/>
+        <color theme="1"/>
       </font>
     </dxf>
     <dxf>
@@ -5608,6 +5501,20 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="1"/>
       </font>
     </dxf>
@@ -5647,6 +5554,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -5668,6 +5582,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -5689,6 +5610,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -5710,6 +5638,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -5731,6 +5666,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -5738,6 +5680,38 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF0000FF"/>
       </font>
     </dxf>
@@ -5745,6 +5719,20 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -5752,6 +5740,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -5759,6 +5754,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF0000FF"/>
       </font>
     </dxf>
@@ -5766,6 +5768,45 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -5773,6 +5814,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -5794,6 +5842,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -5801,6 +5856,70 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF0000FF"/>
       </font>
     </dxf>
@@ -5808,6 +5927,70 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="48"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -5815,6 +5998,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -5822,6 +6012,13 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF0000FF"/>
       </font>
     </dxf>
@@ -5878,7 +6075,126 @@
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0000FF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -7654,41 +7970,41 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K115:K126 H12:H31">
-    <cfRule type="cellIs" dxfId="234" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="15" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K115:K126 H12:H31">
-    <cfRule type="cellIs" dxfId="232" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:H121">
-    <cfRule type="cellIs" dxfId="231" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="9" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:H121">
-    <cfRule type="cellIs" dxfId="229" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122:H127">
-    <cfRule type="cellIs" dxfId="228" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122:H127">
-    <cfRule type="cellIs" dxfId="226" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8837,54 +9153,54 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K108:K119 H4:H8 H15:H23">
-    <cfRule type="cellIs" dxfId="225" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="15" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K108:K119 H4:H8 H15:H23">
-    <cfRule type="cellIs" dxfId="223" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107:H114">
-    <cfRule type="cellIs" dxfId="222" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="9" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107:H114">
-    <cfRule type="cellIs" dxfId="220" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115:H120">
-    <cfRule type="cellIs" dxfId="219" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115:H120">
-    <cfRule type="cellIs" dxfId="217" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H14">
-    <cfRule type="cellIs" dxfId="216" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H14">
-    <cfRule type="cellIs" dxfId="214" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8897,8 +9213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -9004,7 +9320,12 @@
       <c r="G5" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="H5" s="36"/>
+      <c r="H5" s="36" t="s">
+        <v>757</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="6" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="22"/>
@@ -10091,59 +10412,62 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K114:K116 H4:H7 H15:H23">
-    <cfRule type="cellIs" dxfId="213" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K114:K116 H4:H7 H15:H23">
-    <cfRule type="cellIs" dxfId="211" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="16" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:H117">
-    <cfRule type="cellIs" dxfId="210" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="9" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:H117">
-    <cfRule type="cellIs" dxfId="208" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="207" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="205" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H14">
-    <cfRule type="cellIs" dxfId="204" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H14">
-    <cfRule type="cellIs" dxfId="202" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I5" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-480"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10151,1217 +10475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77:G80"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5" style="65" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="65" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="65" customWidth="1"/>
-    <col min="4" max="4" width="7" style="65" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="16" customWidth="1"/>
-    <col min="6" max="6" width="27.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="42.5" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="65"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="56" t="s">
-        <v>671</v>
-      </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-    </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>498</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>499</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
-        <v>502</v>
-      </c>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="13">
-        <v>2</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="13">
-        <v>3</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>506</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>507</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
-        <v>508</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="E12" s="18"/>
-      <c r="F12" s="18" t="s">
-        <v>510</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="18"/>
-      <c r="F13" s="18" t="s">
-        <v>511</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="18"/>
-      <c r="F14" s="18" t="s">
-        <v>512</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="18"/>
-      <c r="F16" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E17" s="18"/>
-      <c r="F17" s="18" t="s">
-        <v>515</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
-        <v>516</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E19" s="18"/>
-      <c r="F19" s="18" t="s">
-        <v>517</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="E20" s="18"/>
-      <c r="F20" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="E21" s="18"/>
-      <c r="F21" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="13">
-        <v>4</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>520</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E23" s="18"/>
-      <c r="F23" s="18" t="s">
-        <v>522</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="18"/>
-      <c r="F24" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>525</v>
-      </c>
-      <c r="D26" s="13">
-        <v>1</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="13">
-        <v>2</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="18"/>
-      <c r="F28" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="18"/>
-      <c r="F29" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="56" t="s">
-        <v>673</v>
-      </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-    </row>
-    <row r="33" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>674</v>
-      </c>
-      <c r="D33" s="13">
-        <v>1</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>675</v>
-      </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="13">
-        <v>2</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>676</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="23"/>
-      <c r="F35" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="13">
-        <v>3</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>677</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="23"/>
-      <c r="F37" s="23" t="s">
-        <v>536</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D38" s="13">
-        <v>4</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>678</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="23"/>
-      <c r="F39" s="23" t="s">
-        <v>536</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="36"/>
-      <c r="D40" s="13">
-        <v>5</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>679</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="36"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-    </row>
-    <row r="42" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="36"/>
-      <c r="D42" s="13">
-        <v>1</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>680</v>
-      </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="36"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-    </row>
-    <row r="44" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="56" t="s">
-        <v>681</v>
-      </c>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-    </row>
-    <row r="45" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36" t="s">
-        <v>539</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>540</v>
-      </c>
-      <c r="D45" s="36">
-        <v>1</v>
-      </c>
-      <c r="E45" s="52" t="s">
-        <v>682</v>
-      </c>
-      <c r="F45" s="53" t="s">
-        <v>541</v>
-      </c>
-      <c r="G45" s="53" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="53" t="s">
-        <v>542</v>
-      </c>
-      <c r="G46" s="53" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="36" t="s">
-        <v>544</v>
-      </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="13">
-        <v>2</v>
-      </c>
-      <c r="E47" s="52" t="s">
-        <v>684</v>
-      </c>
-      <c r="F47" s="53" t="s">
-        <v>541</v>
-      </c>
-      <c r="G47" s="53" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="53" t="s">
-        <v>542</v>
-      </c>
-      <c r="G48" s="53" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D49" s="13">
-        <v>3</v>
-      </c>
-      <c r="E49" s="52" t="s">
-        <v>685</v>
-      </c>
-      <c r="F49" s="53" t="s">
-        <v>541</v>
-      </c>
-      <c r="G49" s="53" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E50" s="52"/>
-      <c r="F50" s="53" t="s">
-        <v>542</v>
-      </c>
-      <c r="G50" s="53" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-    </row>
-    <row r="52" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="D52" s="13">
-        <v>1</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>547</v>
-      </c>
-      <c r="F52" s="18"/>
-      <c r="G52" s="52" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D53" s="36">
-        <v>2</v>
-      </c>
-      <c r="E53" s="52" t="s">
-        <v>686</v>
-      </c>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="56" t="s">
-        <v>670</v>
-      </c>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-    </row>
-    <row r="56" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="D56" s="8">
-        <v>1</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G56" s="23" t="s">
-        <v>687</v>
-      </c>
-      <c r="H56" s="13"/>
-    </row>
-    <row r="57" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="H57" s="13"/>
-    </row>
-    <row r="58" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="13"/>
-    </row>
-    <row r="59" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D59" s="8">
-        <v>1</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11" t="s">
-        <v>689</v>
-      </c>
-      <c r="H59" s="13"/>
-    </row>
-    <row r="60" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="D60" s="8">
-        <v>2</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11" t="s">
-        <v>690</v>
-      </c>
-      <c r="H60" s="13"/>
-    </row>
-    <row r="61" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="13"/>
-    </row>
-    <row r="62" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="D62" s="8">
-        <v>1</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="13"/>
-    </row>
-    <row r="63" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="D63" s="8">
-        <v>2</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="13"/>
-    </row>
-    <row r="64" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="13"/>
-    </row>
-    <row r="65" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65" s="8">
-        <v>1</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="G65" s="11"/>
-      <c r="H65" s="13"/>
-    </row>
-    <row r="66" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="D66" s="8">
-        <v>2</v>
-      </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G66" s="11"/>
-      <c r="H66" s="13"/>
-    </row>
-    <row r="67" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="D67" s="8">
-        <v>3</v>
-      </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="G67" s="11"/>
-      <c r="H67" s="13"/>
-    </row>
-    <row r="68" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="D68" s="8">
-        <v>4</v>
-      </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G68" s="11"/>
-      <c r="H68" s="13"/>
-    </row>
-    <row r="69" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="13"/>
-    </row>
-    <row r="70" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="D70" s="8">
-        <v>1</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="G70" s="11"/>
-      <c r="H70" s="13"/>
-    </row>
-    <row r="71" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="D72" s="8">
-        <v>1</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-    </row>
-    <row r="73" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="D73" s="8">
-        <v>2</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-    </row>
-    <row r="74" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="D74" s="8">
-        <v>3</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-    </row>
-    <row r="75" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-    </row>
-    <row r="76" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="56" t="s">
-        <v>566</v>
-      </c>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B77" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="D77" s="6">
-        <v>1</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>693</v>
-      </c>
-      <c r="F77" s="15"/>
-      <c r="G77" s="16" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6">
-        <v>2</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>694</v>
-      </c>
-      <c r="F78" s="15"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6">
-        <v>3</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>695</v>
-      </c>
-      <c r="F79" s="15"/>
-      <c r="G79" s="64"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6">
-        <v>4</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="F80" s="15"/>
-      <c r="G80" s="16" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B82" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="D82" s="6">
-        <v>1</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>699</v>
-      </c>
-      <c r="F82" s="15"/>
-      <c r="G82" s="16" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6">
-        <v>2</v>
-      </c>
-      <c r="E83" s="15" t="s">
-        <v>701</v>
-      </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="16" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6">
-        <v>3</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>703</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="G84" s="16" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A48:D48 A47:C47 D53:F53">
-    <cfRule type="cellIs" dxfId="201" priority="45" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46:G46">
-    <cfRule type="cellIs" dxfId="200" priority="36" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46:G46">
-    <cfRule type="cellIs" dxfId="199" priority="37" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="38" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:G47">
-    <cfRule type="cellIs" dxfId="197" priority="27" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:G47">
-    <cfRule type="cellIs" dxfId="196" priority="28" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="29" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="194" priority="24" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="25" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="26" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48:G48">
-    <cfRule type="cellIs" dxfId="191" priority="22" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="23" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48:G48">
-    <cfRule type="cellIs" dxfId="189" priority="21" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:G49">
-    <cfRule type="cellIs" dxfId="188" priority="18" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:G49">
-    <cfRule type="cellIs" dxfId="187" priority="19" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="20" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56:H70">
-    <cfRule type="cellIs" dxfId="185" priority="10" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="11" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56:H70">
-    <cfRule type="cellIs" dxfId="183" priority="9" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55:G55">
-    <cfRule type="cellIs" dxfId="182" priority="7" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="8" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:G38">
-    <cfRule type="cellIs" dxfId="180" priority="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="2" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G40">
-    <cfRule type="cellIs" dxfId="178" priority="30" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="31" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:D46 A45:G45 A40:A43">
-    <cfRule type="cellIs" dxfId="176" priority="42" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:D46 A45:G45 A40:A43 A48:D48 A47:C47 D53:E53">
-    <cfRule type="cellIs" dxfId="175" priority="43" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="44" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="173" priority="39" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="40" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="41" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39:F40">
-    <cfRule type="cellIs" dxfId="170" priority="32" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="33" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41:G43 B33:G33 B34:D40">
-    <cfRule type="cellIs" dxfId="168" priority="34" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="35" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="166" priority="15" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="16" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="17" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50:G50">
-    <cfRule type="cellIs" dxfId="163" priority="13" stopIfTrue="1" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="14" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50:G50">
-    <cfRule type="cellIs" dxfId="161" priority="12" operator="equal">
-      <formula>"B"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B76:G76">
-    <cfRule type="cellIs" dxfId="160" priority="5" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="6" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34:G37">
-    <cfRule type="cellIs" dxfId="158" priority="3" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="4" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J84"/>
-  <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A68" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
@@ -11423,7 +10537,7 @@
     </row>
     <row r="3" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="56" t="s">
-        <v>708</v>
+        <v>671</v>
       </c>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
@@ -11446,7 +10560,7 @@
         <v>499</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>597</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -11455,7 +10569,7 @@
         <v>501</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -11494,7 +10608,7 @@
         <v>507</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>719</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.15">
@@ -11503,25 +10617,25 @@
         <v>508</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
         <v>509</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
         <v>510</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>722</v>
+        <v>656</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -11530,7 +10644,7 @@
         <v>511</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>723</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -11539,7 +10653,7 @@
         <v>512</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -11548,7 +10662,7 @@
         <v>513</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -11557,7 +10671,7 @@
         <v>514</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>724</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -11566,7 +10680,7 @@
         <v>515</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>725</v>
+        <v>660</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -11575,7 +10689,7 @@
         <v>516</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -11584,25 +10698,25 @@
         <v>517</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="E20" s="18"/>
       <c r="F20" s="18" t="s">
         <v>518</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="13" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="E21" s="18"/>
       <c r="F21" s="18" t="s">
         <v>519</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>728</v>
+        <v>654</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -11616,7 +10730,7 @@
         <v>521</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>729</v>
+        <v>664</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -11625,7 +10739,7 @@
         <v>522</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>730</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -11634,7 +10748,7 @@
         <v>523</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>731</v>
+        <v>666</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -11677,7 +10791,7 @@
         <v>530</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>598</v>
+        <v>732</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -11704,7 +10818,7 @@
     </row>
     <row r="32" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="56" t="s">
-        <v>710</v>
+        <v>673</v>
       </c>
       <c r="E32" s="55"/>
       <c r="F32" s="55"/>
@@ -11715,13 +10829,13 @@
         <v>524</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>711</v>
+        <v>674</v>
       </c>
       <c r="D33" s="13">
         <v>1</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>712</v>
+        <v>675</v>
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="23" t="s">
@@ -11733,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>736</v>
+        <v>676</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>533</v>
@@ -11748,7 +10862,7 @@
         <v>128</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>733</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -11756,7 +10870,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>738</v>
+        <v>677</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>535</v>
@@ -11771,7 +10885,7 @@
         <v>536</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>734</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -11779,13 +10893,13 @@
         <v>4</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>743</v>
+        <v>678</v>
       </c>
       <c r="F38" s="23" t="s">
         <v>535</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>534</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -11794,43 +10908,39 @@
         <v>536</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>742</v>
+        <v>537</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="36"/>
       <c r="D40" s="13">
         <v>5</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>713</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>535</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="F40" s="23"/>
       <c r="G40" s="23" t="s">
-        <v>131</v>
+        <v>538</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="36"/>
       <c r="E41" s="23"/>
-      <c r="F41" s="23" t="s">
-        <v>536</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>537</v>
-      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
     </row>
     <row r="42" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="36"/>
       <c r="D42" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>714</v>
+        <v>680</v>
       </c>
       <c r="F42" s="23"/>
       <c r="G42" s="23" t="s">
-        <v>538</v>
+        <v>669</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -11839,52 +10949,65 @@
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
     </row>
-    <row r="44" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="36"/>
-      <c r="D44" s="13">
+    <row r="44" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="56" t="s">
+        <v>681</v>
+      </c>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+    </row>
+    <row r="45" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="D45" s="36">
         <v>1</v>
       </c>
-      <c r="E44" s="23" t="s">
-        <v>715</v>
-      </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="36"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-    </row>
-    <row r="46" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="56" t="s">
-        <v>716</v>
-      </c>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
+      <c r="E45" s="52" t="s">
+        <v>682</v>
+      </c>
+      <c r="F45" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="G45" s="53" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="53" t="s">
+        <v>542</v>
+      </c>
+      <c r="G46" s="53" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="47" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36" t="s">
-        <v>539</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>540</v>
-      </c>
-      <c r="D47" s="36">
-        <v>1</v>
+      <c r="A47" s="36" t="s">
+        <v>544</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="13">
+        <v>2</v>
       </c>
       <c r="E47" s="52" t="s">
-        <v>737</v>
+        <v>684</v>
       </c>
       <c r="F47" s="53" t="s">
         <v>541</v>
       </c>
       <c r="G47" s="53" t="s">
-        <v>717</v>
+        <v>683</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -11897,6 +11020,1227 @@
         <v>542</v>
       </c>
       <c r="G48" s="53" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D49" s="13">
+        <v>3</v>
+      </c>
+      <c r="E49" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="F49" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="G49" s="53" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E50" s="52"/>
+      <c r="F50" s="53" t="s">
+        <v>542</v>
+      </c>
+      <c r="G50" s="53" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+    </row>
+    <row r="52" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D52" s="13">
+        <v>1</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="F52" s="18"/>
+      <c r="G52" s="52" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D53" s="36">
+        <v>2</v>
+      </c>
+      <c r="E53" s="52" t="s">
+        <v>686</v>
+      </c>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="56" t="s">
+        <v>670</v>
+      </c>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="47"/>
+    </row>
+    <row r="56" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="8">
+        <v>1</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="D60" s="8">
+        <v>2</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="H60" s="13"/>
+    </row>
+    <row r="61" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="D63" s="8">
+        <v>2</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="13"/>
+    </row>
+    <row r="64" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="13"/>
+    </row>
+    <row r="65" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="8">
+        <v>1</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="G65" s="11"/>
+      <c r="H65" s="13"/>
+    </row>
+    <row r="66" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="D66" s="8">
+        <v>2</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66" s="11"/>
+      <c r="H66" s="13"/>
+    </row>
+    <row r="67" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="D67" s="8">
+        <v>3</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G67" s="11"/>
+      <c r="H67" s="13"/>
+    </row>
+    <row r="68" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="D68" s="8">
+        <v>4</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G68" s="11"/>
+      <c r="H68" s="13"/>
+    </row>
+    <row r="69" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="13"/>
+    </row>
+    <row r="70" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D70" s="8">
+        <v>1</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="G70" s="11"/>
+      <c r="H70" s="13"/>
+    </row>
+    <row r="71" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="D72" s="8">
+        <v>1</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="D73" s="8">
+        <v>2</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+    </row>
+    <row r="74" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="D74" s="8">
+        <v>3</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+    </row>
+    <row r="76" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="56" t="s">
+        <v>566</v>
+      </c>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B77" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="D77" s="6">
+        <v>1</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="F77" s="15"/>
+      <c r="G77" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="H77" s="65" t="s">
+        <v>751</v>
+      </c>
+      <c r="I77" s="73" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6">
+        <v>2</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="F78" s="15"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6">
+        <v>3</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="F79" s="15"/>
+      <c r="G79" s="64"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6">
+        <v>4</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="F80" s="15"/>
+      <c r="G80" s="16" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B82" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="F82" s="15"/>
+      <c r="G82" s="16" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6">
+        <v>2</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="F83" s="15"/>
+      <c r="G83" s="16" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6">
+        <v>3</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>705</v>
+      </c>
+      <c r="H84" s="65" t="s">
+        <v>753</v>
+      </c>
+      <c r="I84" s="73" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A48:D48 A47:C47 D53:F53">
+    <cfRule type="cellIs" dxfId="242" priority="45" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46:G46">
+    <cfRule type="cellIs" dxfId="241" priority="36" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46:G46">
+    <cfRule type="cellIs" dxfId="240" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:G47">
+    <cfRule type="cellIs" dxfId="238" priority="27" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:G47">
+    <cfRule type="cellIs" dxfId="237" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="29" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="235" priority="24" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="25" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="233" priority="26" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:G48">
+    <cfRule type="cellIs" dxfId="232" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:G48">
+    <cfRule type="cellIs" dxfId="230" priority="21" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:G49">
+    <cfRule type="cellIs" dxfId="229" priority="18" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:G49">
+    <cfRule type="cellIs" dxfId="228" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="226" priority="9" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="10" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="11" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55:G55">
+    <cfRule type="cellIs" dxfId="223" priority="7" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="8" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:G38">
+    <cfRule type="cellIs" dxfId="221" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G40">
+    <cfRule type="cellIs" dxfId="219" priority="30" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="31" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:D46 A45:G45 A40:A43">
+    <cfRule type="cellIs" dxfId="217" priority="42" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:D46 A45:G45 A40:A43 A48:D48 A47:C47 D53:E53">
+    <cfRule type="cellIs" dxfId="216" priority="43" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="215" priority="44" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="214" priority="39" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="40" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="41" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:F40">
+    <cfRule type="cellIs" dxfId="211" priority="32" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="33" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:G43 B33:G33 B34:D40">
+    <cfRule type="cellIs" dxfId="209" priority="34" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="35" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="207" priority="15" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="16" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="17" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50:G50">
+    <cfRule type="cellIs" dxfId="204" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50:G50">
+    <cfRule type="cellIs" dxfId="202" priority="12" operator="equal">
+      <formula>"B"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B76:G76">
+    <cfRule type="cellIs" dxfId="201" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="6" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:G37">
+    <cfRule type="cellIs" dxfId="199" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="4" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I77" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-476"/>
+    <hyperlink ref="I84" r:id="rId2" display="http://192.168.199.122:8880/browse/BG-478"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="65" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="65" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="7" style="65" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="27.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="42.5" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="56" t="s">
+        <v>708</v>
+      </c>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+    </row>
+    <row r="4" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="13">
+        <v>2</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="13">
+        <v>3</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="13" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="18"/>
+      <c r="F14" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18" t="s">
+        <v>515</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>755</v>
+      </c>
+      <c r="I19" s="73" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="13" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="E21" s="18"/>
+      <c r="F21" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="13">
+        <v>4</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="13">
+        <v>2</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="18"/>
+      <c r="F28" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="18"/>
+      <c r="F29" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="56" t="s">
+        <v>710</v>
+      </c>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+    </row>
+    <row r="33" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="13">
+        <v>2</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>736</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="23"/>
+      <c r="F35" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="13">
+        <v>3</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>738</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="23"/>
+      <c r="F37" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="13">
+        <v>4</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>743</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="23"/>
+      <c r="F39" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="13">
+        <v>5</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>713</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="36"/>
+      <c r="D42" s="13">
+        <v>6</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>714</v>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="36"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="36"/>
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>715</v>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="36"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="1:7" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="56" t="s">
+        <v>716</v>
+      </c>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+    </row>
+    <row r="47" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="D47" s="36">
+        <v>1</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>737</v>
+      </c>
+      <c r="F47" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="G47" s="53" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="53" t="s">
+        <v>542</v>
+      </c>
+      <c r="G48" s="53" t="s">
         <v>543</v>
       </c>
     </row>
@@ -12366,213 +12710,218 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G41:G42">
-    <cfRule type="cellIs" dxfId="156" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="35" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="36" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:D52 A49:C49 D57:F57">
-    <cfRule type="cellIs" dxfId="154" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="50" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:D48 A47:G47 A42:A45">
-    <cfRule type="cellIs" dxfId="153" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="47" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:D48 A47:G47 A42:A45 A50:D52 A49:C49 D57:E57">
-    <cfRule type="cellIs" dxfId="152" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="48" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="49" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="150" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="44" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="45" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="46" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:G48">
-    <cfRule type="cellIs" dxfId="147" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="42" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="43" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:G48">
-    <cfRule type="cellIs" dxfId="145" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="41" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:G40 E41:F42">
-    <cfRule type="cellIs" dxfId="144" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="37" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="38" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:D42 B43:G45 B33:G39">
-    <cfRule type="cellIs" dxfId="142" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="39" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="40" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:G49">
-    <cfRule type="cellIs" dxfId="140" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="32" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:G49">
-    <cfRule type="cellIs" dxfId="139" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="137" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="29" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="30" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="31" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:G50">
-    <cfRule type="cellIs" dxfId="134" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:G50">
-    <cfRule type="cellIs" dxfId="132" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="26" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:G53">
-    <cfRule type="cellIs" dxfId="131" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="23" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:G53">
-    <cfRule type="cellIs" dxfId="130" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="24" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="25" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="128" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="20" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="21" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="22" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:G54">
-    <cfRule type="cellIs" dxfId="125" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="18" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="19" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:G54">
-    <cfRule type="cellIs" dxfId="123" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="17" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60:H74">
-    <cfRule type="cellIs" dxfId="122" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="16" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60:H74">
-    <cfRule type="cellIs" dxfId="120" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="14" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:G59">
-    <cfRule type="cellIs" dxfId="119" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="12" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="13" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:G80">
-    <cfRule type="cellIs" dxfId="117" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="10" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="11" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:G51">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:G51">
-    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="8" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="9" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:G52">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:G52">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="50" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="I19" r:id="rId1" display="http://192.168.199.122:8880/browse/BG-479"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14250,375 +14599,375 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A65:A77 H65:XFD78 F75:F78">
-    <cfRule type="cellIs" dxfId="115" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="91" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="92" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:E78">
-    <cfRule type="cellIs" dxfId="113" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="89" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="90" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:D74 B65:G69 B71:G71 B70:E70 B75:E75">
-    <cfRule type="cellIs" dxfId="111" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="87" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="88" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G73:G74">
-    <cfRule type="cellIs" dxfId="109" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="83" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="84" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:G72 E73:F74">
-    <cfRule type="cellIs" dxfId="107" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="85" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="86" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70:G70">
-    <cfRule type="cellIs" dxfId="105" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="81" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="82" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76:G78">
-    <cfRule type="cellIs" dxfId="103" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="79" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="80" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:D82 A81:C81 D88 E93:F93">
-    <cfRule type="cellIs" dxfId="101" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="78" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:D80 A79:G79">
-    <cfRule type="cellIs" dxfId="100" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="75" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80:D80 A79:G79 A82:D82 A81:C81 D88 E93">
-    <cfRule type="cellIs" dxfId="99" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="76" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="77" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="97" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="72" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="73" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="74" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:G80">
-    <cfRule type="cellIs" dxfId="94" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="70" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="71" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:G80">
-    <cfRule type="cellIs" dxfId="92" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="69" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:G81">
-    <cfRule type="cellIs" dxfId="91" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="66" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:G81">
-    <cfRule type="cellIs" dxfId="90" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="67" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="68" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="88" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="63" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="64" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="65" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82:G82">
-    <cfRule type="cellIs" dxfId="85" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="61" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="62" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82:G82">
-    <cfRule type="cellIs" dxfId="83" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="60" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G83">
-    <cfRule type="cellIs" dxfId="82" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="57" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:G83">
-    <cfRule type="cellIs" dxfId="81" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="58" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="59" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="79" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="54" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="55" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="56" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="76" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="52" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="53" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="74" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="51" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85:G85">
-    <cfRule type="cellIs" dxfId="73" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="48" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85:G85">
-    <cfRule type="cellIs" dxfId="72" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="49" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="50" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="70" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="45" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="46" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="47" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="67" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="43" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="44" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="65" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="42" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="64" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="38" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="63" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="36" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="37" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="61" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="35" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="60" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="33" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="34" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="58" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="32" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="57" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="30" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="31" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88:F88 E88:E91">
-    <cfRule type="cellIs" dxfId="55" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="29" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88:E91">
-    <cfRule type="cellIs" dxfId="54" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="27" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="28" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="52" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="26" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="51" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="24" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="25" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="49" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="23" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="48" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="21" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="22" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="46" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="20" operator="equal">
       <formula>"B"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="45" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="18" stopIfTrue="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="19" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99:H101 H104:H111">
-    <cfRule type="cellIs" dxfId="43" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="16" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="17" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99:H101 H104:H111">
-    <cfRule type="cellIs" dxfId="41" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102:H103">
-    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102:H103">
-    <cfRule type="cellIs" dxfId="38" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="12" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H112:H115">
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="10" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="11" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H112:H115">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H117">
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="8" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H117">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="5" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98:G98">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14631,7 +14980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
@@ -15696,41 +16045,41 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="R5:R16">
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="9" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:R16">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R33">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R33">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
